--- a/qa/01.测试用例/副本内容设计/第二章/第二章副本测试用例.xlsx
+++ b/qa/01.测试用例/副本内容设计/第二章/第二章副本测试用例.xlsx
@@ -30,12 +30,12 @@
     <sheet name="2-8副本" sheetId="32" r:id="rId16"/>
     <sheet name="2-8boss" sheetId="41" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8286" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8293" uniqueCount="1586">
   <si>
     <t>caseID</t>
   </si>
@@ -6099,6 +6099,27 @@
   <si>
     <t>共配置4只xgPiying5，2只xgKairuisi5</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>球呢！？我的球呢！</t>
+  </si>
+  <si>
+    <t>自从我手上中了一箭</t>
+  </si>
+  <si>
+    <t>请你接受我的心</t>
+  </si>
+  <si>
+    <t>宝藏什么的我真的木有！！</t>
+  </si>
+  <si>
+    <t>一不小心哥哥的灵魂就被吸走了</t>
+  </si>
+  <si>
+    <t>龙宫至宝在我手里</t>
+  </si>
+  <si>
+    <t>围巾是我的最爱</t>
   </si>
 </sst>
 </file>
@@ -7420,813 +7441,7 @@
     <cellStyle name="着色 6" xfId="128" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释 2" xfId="142"/>
   </cellStyles>
-  <dxfs count="374">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="305">
     <dxf>
       <font>
         <b/>
@@ -8438,6 +7653,37 @@
         <i val="0"/>
         <color rgb="FF0000FF"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -8756,6 +8002,37 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9152,6 +8429,37 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -9476,6 +8784,37 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9872,6 +9211,37 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -10014,6 +9384,37 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -10242,6 +9643,37 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -10324,130 +9756,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -10813,7 +10121,7 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:H36"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11046,6 +10354,9 @@
       <c r="F12" s="26" t="s">
         <v>243</v>
       </c>
+      <c r="G12" s="30" t="s">
+        <v>1583</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>1438</v>
       </c>
@@ -12869,37 +12180,37 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="253" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="251" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H1048576 H1:H21 H27:H38">
-    <cfRule type="cellIs" dxfId="250" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="4" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18336,178 +17647,178 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A331:G331 I331:XFD331">
-    <cfRule type="cellIs" dxfId="247" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="62" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="63" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E332">
-    <cfRule type="cellIs" dxfId="245" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="56" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="57" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G332">
-    <cfRule type="cellIs" dxfId="243" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="54" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="55" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H293:H298 H1:H245 H247:H274 H288 H305:H1048576">
-    <cfRule type="cellIs" dxfId="241" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="39" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="40" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H287">
-    <cfRule type="cellIs" dxfId="239" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="cellIs" dxfId="237" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290">
-    <cfRule type="cellIs" dxfId="235" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H292">
-    <cfRule type="cellIs" dxfId="233" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275">
-    <cfRule type="cellIs" dxfId="231" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="37" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H276">
-    <cfRule type="cellIs" dxfId="229" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="35" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H277">
-    <cfRule type="cellIs" dxfId="227" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="33" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278">
-    <cfRule type="cellIs" dxfId="225" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="31" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="32" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H279">
-    <cfRule type="cellIs" dxfId="223" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="29" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H280">
-    <cfRule type="cellIs" dxfId="221" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="27" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H281">
-    <cfRule type="cellIs" dxfId="219" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282">
-    <cfRule type="cellIs" dxfId="217" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H283">
-    <cfRule type="cellIs" dxfId="215" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="22" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H284">
-    <cfRule type="cellIs" dxfId="213" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="211" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286">
-    <cfRule type="cellIs" dxfId="209" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H291">
-    <cfRule type="cellIs" dxfId="207" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H302:H304">
-    <cfRule type="cellIs" dxfId="205" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18526,7 +17837,7 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:H36"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -18759,7 +18070,9 @@
       <c r="F12" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>1584</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>1547</v>
       </c>
@@ -20583,37 +19896,37 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="203" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="201" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H1048576 H1:H21 H27:H38">
-    <cfRule type="cellIs" dxfId="200" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="4" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25258,178 +24571,178 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A277:G277 I277:XFD277">
-    <cfRule type="cellIs" dxfId="197" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="67" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="68" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E278">
-    <cfRule type="cellIs" dxfId="195" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="58" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="59" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G278">
-    <cfRule type="cellIs" dxfId="193" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="56" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="57" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289:H294 H284 H301:H1048576 H1:H47 H49:H270">
-    <cfRule type="cellIs" dxfId="191" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="37" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H283">
-    <cfRule type="cellIs" dxfId="189" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="12" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="187" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286">
-    <cfRule type="cellIs" dxfId="185" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H288">
-    <cfRule type="cellIs" dxfId="183" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H271">
-    <cfRule type="cellIs" dxfId="181" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="35" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H272">
-    <cfRule type="cellIs" dxfId="179" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="33" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H273">
-    <cfRule type="cellIs" dxfId="177" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="31" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="32" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H274">
-    <cfRule type="cellIs" dxfId="175" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="29" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275">
-    <cfRule type="cellIs" dxfId="173" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="27" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H276">
-    <cfRule type="cellIs" dxfId="171" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H277">
-    <cfRule type="cellIs" dxfId="169" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278">
-    <cfRule type="cellIs" dxfId="167" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="22" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H279">
-    <cfRule type="cellIs" dxfId="165" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H280">
-    <cfRule type="cellIs" dxfId="163" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H281">
-    <cfRule type="cellIs" dxfId="161" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282">
-    <cfRule type="cellIs" dxfId="159" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H287">
-    <cfRule type="cellIs" dxfId="157" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H298:H300">
-    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25448,7 +24761,7 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:H36"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -25681,7 +24994,9 @@
       <c r="F12" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="56" t="s">
+        <v>1585</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>1547</v>
       </c>
@@ -27505,37 +26820,37 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="153" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="151" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H1048576 H1:H21 H27:H38">
-    <cfRule type="cellIs" dxfId="150" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32239,154 +31554,154 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A277:G277 I277:XFD277">
-    <cfRule type="cellIs" dxfId="147" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="63" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E278">
-    <cfRule type="cellIs" dxfId="145" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="51" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="52" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G278">
-    <cfRule type="cellIs" dxfId="143" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="49" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="50" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285:H290 H280 H297:H1048576 H1:H47 H49:H269">
-    <cfRule type="cellIs" dxfId="141" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="37" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H279">
-    <cfRule type="cellIs" dxfId="139" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="12" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H281">
-    <cfRule type="cellIs" dxfId="137" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282">
-    <cfRule type="cellIs" dxfId="135" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H284">
-    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H270">
-    <cfRule type="cellIs" dxfId="131" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H271">
-    <cfRule type="cellIs" dxfId="129" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H272">
-    <cfRule type="cellIs" dxfId="127" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H273">
-    <cfRule type="cellIs" dxfId="125" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H274">
-    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="22" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275">
-    <cfRule type="cellIs" dxfId="121" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H276">
-    <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H277">
-    <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278">
-    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H283">
-    <cfRule type="cellIs" dxfId="113" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H294:H296">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32406,7 +31721,7 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -34457,37 +33772,37 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="109" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H1048576 H1:H21 H27:H38">
-    <cfRule type="cellIs" dxfId="106" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40003,102 +39318,102 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H9 H362">
-    <cfRule type="cellIs" dxfId="103" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H465:H525">
-    <cfRule type="cellIs" dxfId="100" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="cellIs" dxfId="97" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A362:XFD362 H284:H361">
-    <cfRule type="cellIs" dxfId="94" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H284:H361">
-    <cfRule type="cellIs" dxfId="92" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E363">
-    <cfRule type="cellIs" dxfId="91" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G363">
-    <cfRule type="cellIs" dxfId="89" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H366:H398">
-    <cfRule type="notContainsBlanks" dxfId="87" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="16">
       <formula>LEN(TRIM(H366))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H270">
-    <cfRule type="cellIs" dxfId="86" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H224">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40111,8 +39426,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -40345,7 +39660,9 @@
       <c r="F12" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>1579</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>1438</v>
       </c>
@@ -42169,26 +41486,26 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="361" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="359" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H1048576 H1:H38">
-    <cfRule type="cellIs" dxfId="358" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46761,10 +46078,10 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="355" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46782,8 +46099,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -47016,7 +46333,9 @@
       <c r="F12" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="56" t="s">
+        <v>1580</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>1438</v>
       </c>
@@ -48840,37 +48159,37 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="353" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="351" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H1048576 H1:H21 H27:H38">
-    <cfRule type="cellIs" dxfId="350" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="4" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53547,82 +52866,82 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A276:G276 I276:XFD276">
-    <cfRule type="cellIs" dxfId="347" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="40" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="41" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E277">
-    <cfRule type="cellIs" dxfId="345" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="24" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="25" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G277">
-    <cfRule type="cellIs" dxfId="343" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="22" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="23" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H234 H269 H236:H241 H243:H258 H271:H1048576">
-    <cfRule type="cellIs" dxfId="341" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H259:H261">
-    <cfRule type="cellIs" dxfId="339" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="12" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H262">
-    <cfRule type="cellIs" dxfId="337" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H263">
-    <cfRule type="cellIs" dxfId="335" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H264:H267">
-    <cfRule type="cellIs" dxfId="333" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H242">
-    <cfRule type="cellIs" dxfId="331" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H270">
-    <cfRule type="cellIs" dxfId="329" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53641,7 +52960,7 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -53874,7 +53193,9 @@
       <c r="F12" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>1581</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>1547</v>
       </c>
@@ -55698,37 +55019,37 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="327" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="325" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H1048576 H1:H21 H27:H38">
-    <cfRule type="cellIs" dxfId="324" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="4" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60036,74 +59357,74 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A252:G252 I252:XFD252">
-    <cfRule type="cellIs" dxfId="321" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="40" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="41" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H269 H245:H250 H271:H1048576 H1:H35 H252:H253 H37:H234 H255:H258">
-    <cfRule type="cellIs" dxfId="319" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H259:H261">
-    <cfRule type="cellIs" dxfId="317" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H262">
-    <cfRule type="cellIs" dxfId="315" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H263">
-    <cfRule type="cellIs" dxfId="313" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="12" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H264:H267">
-    <cfRule type="cellIs" dxfId="311" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H270">
-    <cfRule type="cellIs" dxfId="309" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H236:H244">
-    <cfRule type="cellIs" dxfId="307" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H235">
-    <cfRule type="cellIs" dxfId="305" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60123,7 +59444,7 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:H36"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -60356,6 +59677,9 @@
       <c r="F12" s="26" t="s">
         <v>243</v>
       </c>
+      <c r="G12" s="30" t="s">
+        <v>1582</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>1548</v>
       </c>
@@ -62179,37 +61503,37 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="303" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:K140">
-    <cfRule type="cellIs" dxfId="301" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H1048576 H1:H21 H27:H38">
-    <cfRule type="cellIs" dxfId="300" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="4" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26">
-    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67643,178 +66967,178 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A309:G309 I309:XFD309">
-    <cfRule type="cellIs" dxfId="297" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="75" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="76" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E310">
-    <cfRule type="cellIs" dxfId="295" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="69" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="70" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G310">
-    <cfRule type="cellIs" dxfId="293" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="67" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="68" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H274 H302:H1048576">
-    <cfRule type="cellIs" dxfId="291" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="49" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H293">
-    <cfRule type="cellIs" dxfId="289" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="12" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H294">
-    <cfRule type="cellIs" dxfId="287" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H295">
-    <cfRule type="cellIs" dxfId="285" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H296">
-    <cfRule type="cellIs" dxfId="283" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H298:H301">
-    <cfRule type="cellIs" dxfId="281" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275">
-    <cfRule type="cellIs" dxfId="279" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="35" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H276">
-    <cfRule type="cellIs" dxfId="277" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="33" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H277:H283">
-    <cfRule type="cellIs" dxfId="275" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="31" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="32" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H284">
-    <cfRule type="cellIs" dxfId="273" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="29" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="271" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="27" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286">
-    <cfRule type="cellIs" dxfId="269" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H287">
-    <cfRule type="cellIs" dxfId="267" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H288">
-    <cfRule type="cellIs" dxfId="265" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="22" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="cellIs" dxfId="263" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290">
-    <cfRule type="cellIs" dxfId="261" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H291">
-    <cfRule type="cellIs" dxfId="259" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H292">
-    <cfRule type="cellIs" dxfId="257" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H297">
-    <cfRule type="cellIs" dxfId="255" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
